--- a/normativa/Anexos/L05T02C03/L05T02C03A04.1.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="2" r:id="rId1"/>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -776,20 +776,20 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="3.7109375" style="1"/>
+    <col min="5" max="5" width="47.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1048,7 +1048,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
@@ -2010,7 +2010,7 @@
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
